--- a/exportURLLan.xlsx
+++ b/exportURLLan.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98F762DD-459D-4ADA-8F3D-EBB6C785C3AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="19425" yWindow="3375" windowWidth="14565" windowHeight="16245" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>1.请仔细阅读说明</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -28,27 +29,159 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>adc7b43a601742f13ea37826f379ce3750ffeab5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.840.113704.1.111.2028.1354955399.41
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3.单次最大支持2000条数据导出</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>4.删除模板第6，第7行示例</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02870457449b31c0ae96318574c2fbb62082e719</t>
+  </si>
+  <si>
+    <t>04e16c5ebdb45c76ef3018ff1ff58727ffaf3357</t>
+  </si>
+  <si>
+    <t>140fc6a0fb18e63b4b44ad76873c5e377d6ba0d5</t>
+  </si>
+  <si>
+    <t>1b6dcbe38f555d09933d5fbab6427fcab2b40b84</t>
+  </si>
+  <si>
+    <t>2017886dca8ff38d96df01f72b6c63d06d99e5b3</t>
+  </si>
+  <si>
+    <t>28ffa9b2d1f451a11fa64fd8e45a15f50e05431f</t>
+  </si>
+  <si>
+    <t>39bb6a08d0e584ff4a33b3469b2be73a861c88b5</t>
+  </si>
+  <si>
+    <t>417e34e280cdbc2096a49d0136780527147d299c</t>
+  </si>
+  <si>
+    <t>4491a4b1c4285e6c500f4f8c850eea729c87a985</t>
+  </si>
+  <si>
+    <t>5d8c2aeeacefa4754a3709525f588c4524408e5e</t>
+  </si>
+  <si>
+    <t>5de17b7d6c476486392803e05fbc8d8d42c53ead</t>
+  </si>
+  <si>
+    <t>6222d1f62fe137b838fe1a8246d43bea8975418d</t>
+  </si>
+  <si>
+    <t>624758c76dea05b2657135d2e710422cee7896b4</t>
+  </si>
+  <si>
+    <t>6325cda20b0427d1e66654671bb22536d95e8ad6</t>
+  </si>
+  <si>
+    <t>63f92e7a8d4610bca614681c7a0a100e82cab541</t>
+  </si>
+  <si>
+    <t>6537b8121b4bc944c47da4a60503e6e45a15e8f2</t>
+  </si>
+  <si>
+    <t>67e8eb3138b15618a40aab513a696b9fa7f72512</t>
+  </si>
+  <si>
+    <t>6953ab2fcf908c6e255783ace68a9f98b38f3546</t>
+  </si>
+  <si>
+    <t>6c8e50a4940d6850eda1e4e46688a148c7c08ae2</t>
+  </si>
+  <si>
+    <t>6d97081c8c661420c9a354456f3804a04705f1cb</t>
+  </si>
+  <si>
+    <t>79036874a8293c9019207425445cff135c580d5c</t>
+  </si>
+  <si>
+    <t>79ddf462c93a8408fdabbf96d6ef18d1fd9fdcff</t>
+  </si>
+  <si>
+    <t>9acac35ba13e2a315755676489ce5c6ee37f5128</t>
+  </si>
+  <si>
+    <t>9bbec918bcd42dbd28a12be7b47254a1f9c14848</t>
+  </si>
+  <si>
+    <t>9eec4ca56533c8b18955848baa58439afa998f61</t>
+  </si>
+  <si>
+    <t>a0f4d5634fd8bbeb2a329bf6c06365bd64c849a5</t>
+  </si>
+  <si>
+    <t>a26f6f04cc73e929d851178e8f5cd8e923962990</t>
+  </si>
+  <si>
+    <t>adeade4b13bd986ee1b1fdf99923c20e9840c08c</t>
+  </si>
+  <si>
+    <t>aecae3824226129ff055f5eb417cb976c62714f8</t>
+  </si>
+  <si>
+    <t>b3b410d8f94824d34fdf7f75a39c03a0dee55a71</t>
+  </si>
+  <si>
+    <t>bd0545b6a9ce3694fe80f5ce5451f63b79003bac</t>
+  </si>
+  <si>
+    <t>bf12349797df3fa5eb8067fa6bd9e6e981081962</t>
+  </si>
+  <si>
+    <t>c4de1a36390479b6a47980c25dabf4649a31fdef</t>
+  </si>
+  <si>
+    <t>ca3c1c4b03658c5473c357ec215f24404679e331</t>
+  </si>
+  <si>
+    <t>cb0568c979da876466b62849816f2e310a308077</t>
+  </si>
+  <si>
+    <t>cc7256bc5cc70bb53533d2e47f93e6610d03f7f6</t>
+  </si>
+  <si>
+    <t>ced64e78955768e6d60aee47466961d26bd88fb9</t>
+  </si>
+  <si>
+    <t>cfb3d987a710be34eaabc0a3bd3b6274a968c664</t>
+  </si>
+  <si>
+    <t>d180a9f25e163839ca1fe9fb6b8687de3fee1856</t>
+  </si>
+  <si>
+    <t>d4c25d4e3db26894b593eb358cfc9e0519622eda</t>
+  </si>
+  <si>
+    <t>d692da9d3d9d48965fc2b6606228bce1416b0716</t>
+  </si>
+  <si>
+    <t>d888ed78e09880e144cd35b3f68ace7b0c01e7b9</t>
+  </si>
+  <si>
+    <t>d9bc858f8d3c8bf7eb82d43fac693623cf017da1</t>
+  </si>
+  <si>
+    <t>ea21a2447d743321408ceac911487a2c2b947b55</t>
+  </si>
+  <si>
+    <t>ef0ae516a6435f3042d4a2ba400c948cf317c295</t>
+  </si>
+  <si>
+    <t>f1ffb6655fbbe0bd289c5835f39cc48d4c1b2892</t>
+  </si>
+  <si>
+    <t>f3e47dd4aeeb285ba5e8c28aebd1e49683352c51</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -108,11 +241,11 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -142,7 +275,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -159,7 +292,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -234,6 +367,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -269,6 +419,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -444,11 +611,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:A52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -456,39 +623,264 @@
     <col min="1" max="1" width="72.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="3" t="s">
+    <row r="7" spans="1:1" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>3</v>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A8" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A9" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A11" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A12" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A13" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A14" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A15" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A16" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A21" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A22" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A23" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A24" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A25" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A26" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A27" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A28" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A29" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A30" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A31" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A32" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A33" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A34" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A35" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A36" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A37" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A38" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A39" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A40" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A41" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A42" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A43" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A44" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A45" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A46" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A47" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A48" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A49" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A50" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A51" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A52" s="3" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
